--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T12:56:11-05:00</t>
+    <t>2022-04-19T13:14:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -596,10 +596,27 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/accessibility}
+</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>An extension to describe accessibility options offered by a practitioner or at a location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -611,27 +628,10 @@
               This provides needed flexibility for specifying whether a provider accepts new patients by location and network.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}new-patients-characteristics:If no new patients are accepted, no characteristics are allowed {extension('acceptingPatients').valueCodeableConcept.coding.exists(code = 'no') implies extension('characteristics').empty()}</t>
   </si>
   <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/accessibility}
-</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
-    <t>An extension to describe accessibility options offered by a practitioner or at a location.</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -686,418 +686,279 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Location.identifier.id</t>
-  </si>
-  <si>
-    <t>Location.identifier.extension</t>
-  </si>
-  <si>
-    <t>Location.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Location.status</t>
+  </si>
+  <si>
+    <t>active | suspended | inactive</t>
+  </si>
+  <si>
+    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Location.identifier.type</t>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Location.operationalStatus</t>
+  </si>
+  <si>
+    <t>The operational status of the location (typically only for a bed/room)</t>
+  </si>
+  <si>
+    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
+  </si>
+  <si>
+    <t>The operational status if the location (where typically a bed/room).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+  </si>
+  <si>
+    <t>Location.name</t>
+  </si>
+  <si>
+    <t>Name of the location as used by humans</t>
+  </si>
+  <si>
+    <t>Name of the location as used by humans. Does not need to be unique.</t>
+  </si>
+  <si>
+    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>Location.alias</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the location is known as, or was known as, in the past</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the location is known as, or was known as, in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.</t>
+  </si>
+  <si>
+    <t>Over time locations and organizations go through many changes and can be known by different names.
+For searching knowing previous names that the location was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>Location.description</t>
+  </si>
+  <si>
+    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
+  </si>
+  <si>
+    <t>Description of the Location, which helps in finding or referencing the place.</t>
+  </si>
+  <si>
+    <t>Humans need additional information to verify a correct location has been identified.</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
+  </si>
+  <si>
+    <t>Location.mode</t>
+  </si>
+  <si>
+    <t>instance | kind</t>
+  </si>
+  <si>
+    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
+  </si>
+  <si>
+    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.</t>
+  </si>
+  <si>
+    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
+  </si>
+  <si>
+    <t>.playingEntity[classCode=PLC].determinerCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Location.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Location.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Location.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Location.identifier.period</t>
+    <t>Type of function performed</t>
+  </si>
+  <si>
+    <t>Indicates the type of function performed at the location.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>Location.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details of the location</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>Location.telecom.id</t>
+  </si>
+  <si>
+    <t>Location.telecom.extension</t>
+  </si>
+  <si>
+    <t>contactpoint-availabletime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+</t>
+  </si>
+  <si>
+    <t>Contactpoint Availabletime</t>
+  </si>
+  <si>
+    <t>An extension representing the days and times a contact point is available</t>
+  </si>
+  <si>
+    <t>via-intermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+</t>
+  </si>
+  <si>
+    <t>Via Intermediary</t>
+  </si>
+  <si>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
+  </si>
+  <si>
+    <t>Location.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>Location.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Location.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>Location.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Location.telecom.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Location.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Location.status</t>
-  </si>
-  <si>
-    <t>active | suspended | inactive</t>
-  </si>
-  <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Location.operationalStatus</t>
-  </si>
-  <si>
-    <t>The operational status of the location (typically only for a bed/room)</t>
-  </si>
-  <si>
-    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
-  </si>
-  <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
-  </si>
-  <si>
-    <t>Location.name</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans</t>
-  </si>
-  <si>
-    <t>Name of the location as used by humans. Does not need to be unique.</t>
-  </si>
-  <si>
-    <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>Location.alias</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the location is known as, or was known as, in the past.</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the location.</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the location was known by can be very useful.</t>
-  </si>
-  <si>
-    <t>Location.description</t>
-  </si>
-  <si>
-    <t>Additional details about the location that could be displayed as further information to identify the location beyond its name</t>
-  </si>
-  <si>
-    <t>Description of the Location, which helps in finding or referencing the place.</t>
-  </si>
-  <si>
-    <t>Humans need additional information to verify a correct location has been identified.</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
-  </si>
-  <si>
-    <t>Location.mode</t>
-  </si>
-  <si>
-    <t>instance | kind</t>
-  </si>
-  <si>
-    <t>Indicates whether a resource instance represents a specific location or a class of locations.</t>
-  </si>
-  <si>
-    <t>This is labeled as a modifier because whether or not the location is a class of locations changes how it can be used and understood.</t>
-  </si>
-  <si>
-    <t>When using a Location resource for scheduling or orders, we need to be able to refer to a class of Locations instead of a specific Location.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-mode|4.0.1</t>
-  </si>
-  <si>
-    <t>.playingEntity[classCode=PLC].determinerCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Location.type</t>
-  </si>
-  <si>
-    <t>Type of function performed</t>
-  </si>
-  <si>
-    <t>Indicates the type of function performed at the location.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>Location.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contact details of the location</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available at the location. This can include phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>Location.telecom.id</t>
-  </si>
-  <si>
-    <t>Location.telecom.extension</t>
-  </si>
-  <si>
-    <t>contactpoint-availabletime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
-</t>
-  </si>
-  <si>
-    <t>Contactpoint Availabletime</t>
-  </si>
-  <si>
-    <t>An extension representing the days and times a contact point is available</t>
-  </si>
-  <si>
-    <t>via-intermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
-</t>
-  </si>
-  <si>
-    <t>Via Intermediary</t>
-  </si>
-  <si>
-    <t>A reference to an alternative point of contact (NatlDir-PractitionerRole, NatlDir-Organization, NatlDir-OrganizationAffiliation, or NatlDir-Location) for this organization</t>
-  </si>
-  <si>
-    <t>Location.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>Location.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Location.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>Location.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Location.telecom.period</t>
   </si>
   <si>
     <t>Time period when the contact point was/is in use</t>
@@ -1466,7 +1327,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -1488,7 +1349,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -1591,7 +1452,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1921,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK80"/>
+  <dimension ref="A1:AK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1965,7 +1826,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="66.3671875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3752,7 +3613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>182</v>
       </c>
@@ -3770,7 +3631,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3848,7 +3709,7 @@
         <v>190</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -3857,12 +3718,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>74</v>
@@ -3875,7 +3736,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3884,13 +3745,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3953,7 +3814,7 @@
         <v>190</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
@@ -3962,7 +3823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>182</v>
       </c>
@@ -3980,7 +3841,7 @@
         <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -4176,7 +4037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>206</v>
       </c>
@@ -4192,7 +4053,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4281,7 +4142,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>213</v>
       </c>
@@ -4291,28 +4152,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4321,7 +4182,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>74</v>
@@ -4339,13 +4200,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -4363,7 +4224,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4375,29 +4236,29 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -4406,20 +4267,18 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4444,54 +4303,54 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4499,35 +4358,33 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4551,13 +4408,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4575,7 +4432,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4590,15 +4447,15 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4609,31 +4466,31 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4658,37 +4515,37 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4697,7 +4554,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4705,7 +4562,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4728,19 +4585,17 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4753,7 +4608,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -4789,7 +4644,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4804,15 +4659,15 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4823,10 +4678,10 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4835,18 +4690,20 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4858,26 +4715,26 @@
         <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4894,7 +4751,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4909,13 +4766,13 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>74</v>
-      </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>249</v>
       </c>
@@ -4928,10 +4785,10 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4973,13 +4830,13 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4997,13 +4854,13 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -5015,10 +4872,10 @@
         <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>255</v>
       </c>
@@ -5031,16 +4888,16 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>256</v>
@@ -5051,9 +4908,7 @@
       <c r="L30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -5102,13 +4957,13 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -5117,15 +4972,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5133,28 +4988,28 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5163,7 +5018,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>74</v>
@@ -5181,13 +5036,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -5205,7 +5060,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5217,29 +5072,29 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -5248,18 +5103,20 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5284,87 +5141,87 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5413,32 +5270,34 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5450,7 +5309,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5459,20 +5318,16 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5520,7 +5375,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>279</v>
+        <v>109</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5532,18 +5387,18 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5557,7 +5412,7 @@
         <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5566,18 +5421,16 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5601,13 +5454,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5625,7 +5478,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5634,13 +5487,13 @@
         <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5648,7 +5501,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5659,7 +5512,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5671,19 +5524,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5708,13 +5561,13 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5732,7 +5585,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5747,15 +5600,15 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5766,28 +5619,32 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5811,13 +5668,13 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>74</v>
@@ -5835,13 +5692,13 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
@@ -5850,15 +5707,15 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5869,27 +5726,29 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5938,13 +5797,13 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
@@ -5953,7 +5812,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5961,7 +5820,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5981,16 +5840,16 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6041,7 +5900,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6053,32 +5912,32 @@
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6087,18 +5946,20 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6134,46 +5995,44 @@
         <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>312</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6182,10 +6041,10 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6194,13 +6053,13 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>310</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6251,36 +6110,34 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6290,7 +6147,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6299,15 +6156,17 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>314</v>
+        <v>102</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6344,16 +6203,16 @@
         <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>109</v>
@@ -6371,15 +6230,15 @@
         <v>110</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6393,10 +6252,10 @@
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>83</v>
@@ -6405,13 +6264,17 @@
         <v>158</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6423,7 +6286,7 @@
         <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>74</v>
@@ -6435,13 +6298,13 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -6459,7 +6322,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6468,21 +6331,21 @@
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>323</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6496,7 +6359,7 @@
         <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6505,20 +6368,18 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6530,7 +6391,7 @@
         <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>74</v>
@@ -6542,13 +6403,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6566,7 +6427,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6581,7 +6442,7 @@
         <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6606,13 +6467,13 @@
         <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>333</v>
@@ -6637,7 +6498,7 @@
         <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>74</v>
@@ -6649,31 +6510,31 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6688,15 +6549,15 @@
         <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6707,10 +6568,10 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6719,17 +6580,15 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6742,7 +6601,7 @@
         <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>74</v>
@@ -6778,13 +6637,13 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
@@ -6793,19 +6652,19 @@
         <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6815,7 +6674,7 @@
         <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6824,7 +6683,7 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>348</v>
@@ -6845,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>74</v>
@@ -6881,7 +6740,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6896,19 +6755,19 @@
         <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6918,29 +6777,27 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N48" t="s" s="2">
         <v>357</v>
       </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6952,7 +6809,7 @@
         <v>74</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>74</v>
@@ -6988,7 +6845,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7003,19 +6860,19 @@
         <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7025,22 +6882,22 @@
         <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>97</v>
+        <v>364</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7067,13 +6924,13 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7091,7 +6948,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>98</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7103,51 +6960,49 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>368</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>101</v>
+        <v>370</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7160,7 +7015,7 @@
         <v>74</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>74</v>
@@ -7184,34 +7039,34 @@
         <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>375</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7219,7 +7074,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7236,26 +7091,24 @@
         <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7267,7 +7120,7 @@
         <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>74</v>
@@ -7279,13 +7132,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7303,7 +7156,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7318,7 +7171,7 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7326,7 +7179,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7349,18 +7202,18 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7372,7 +7225,7 @@
         <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>74</v>
@@ -7384,13 +7237,13 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7408,7 +7261,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7423,15 +7276,15 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7445,7 +7298,7 @@
         <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7454,19 +7307,17 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7479,7 +7330,7 @@
         <v>74</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>74</v>
@@ -7491,13 +7342,13 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
@@ -7515,7 +7366,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7530,15 +7381,15 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7549,28 +7400,30 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7582,7 +7435,7 @@
         <v>74</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>74</v>
@@ -7618,13 +7471,13 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
@@ -7633,19 +7486,19 @@
         <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7655,22 +7508,22 @@
         <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>97</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7685,7 +7538,7 @@
         <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>396</v>
+        <v>74</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>74</v>
@@ -7721,7 +7574,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>397</v>
+        <v>98</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7733,10 +7586,10 @@
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7744,18 +7597,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7764,19 +7617,19 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>401</v>
+        <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>104</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7790,7 +7643,7 @@
         <v>74</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>74</v>
@@ -7826,62 +7679,66 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>406</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
@@ -7905,13 +7762,13 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>74</v>
@@ -7929,59 +7786,59 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>414</v>
+        <v>181</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7996,7 +7853,7 @@
         <v>74</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>74</v>
@@ -8032,10 +7889,10 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -8047,7 +7904,7 @@
         <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -8055,7 +7912,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8063,7 +7920,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>82</v>
@@ -8075,20 +7932,18 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8137,10 +7992,10 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -8152,7 +8007,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -8160,7 +8015,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8180,21 +8035,19 @@
         <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>250</v>
+        <v>409</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8206,7 +8059,7 @@
         <v>74</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>74</v>
@@ -8242,7 +8095,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8257,15 +8110,15 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>351</v>
+        <v>412</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8279,7 +8132,7 @@
         <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8288,17 +8141,19 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>226</v>
+        <v>420</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8323,13 +8178,13 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>438</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>439</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8347,7 +8202,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8362,15 +8217,15 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8393,17 +8248,17 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8452,7 +8307,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8467,7 +8322,7 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
@@ -8475,7 +8330,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8486,7 +8341,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8498,15 +8353,17 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>396</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8555,22 +8412,22 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>436</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
@@ -8578,18 +8435,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8601,17 +8458,15 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8660,19 +8515,19 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>99</v>
@@ -8683,11 +8538,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8700,26 +8555,24 @@
         <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>451</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N65" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8767,7 +8620,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>453</v>
+        <v>109</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8782,7 +8635,7 @@
         <v>110</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -8790,39 +8643,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>455</v>
+        <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8870,22 +8727,22 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>458</v>
+        <v>181</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -8893,7 +8750,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8901,10 +8758,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>74</v>
@@ -8916,13 +8773,13 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>455</v>
+        <v>158</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8949,13 +8806,13 @@
         <v>74</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>74</v>
@@ -8973,13 +8830,13 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>74</v>
@@ -8988,7 +8845,7 @@
         <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -8996,7 +8853,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9019,13 +8876,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9076,7 +8933,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9091,15 +8948,15 @@
         <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9113,29 +8970,25 @@
         <v>82</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9183,7 +9036,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9198,15 +9051,15 @@
         <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9220,7 +9073,7 @@
         <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9229,18 +9082,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>476</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9288,7 +9139,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9303,15 +9154,15 @@
         <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9322,10 +9173,10 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9334,17 +9185,15 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>442</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9393,13 +9242,13 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
@@ -9408,15 +9257,15 @@
         <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>482</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9427,10 +9276,10 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -9439,16 +9288,18 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>460</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>96</v>
+        <v>461</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>97</v>
+        <v>462</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
       </c>
@@ -9496,19 +9347,19 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>98</v>
+        <v>459</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>99</v>
@@ -9517,840 +9368,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK80">
+  <autoFilter ref="A1:AK72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10360,7 +9379,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T21:32:28-05:00</t>
+    <t>2022-04-24T12:38:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T12:38:40-05:00</t>
+    <t>2022-04-25T03:17:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T03:17:22-05:00</t>
+    <t>2022-04-25T04:33:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:33:18-05:00</t>
+    <t>2022-04-25T04:38:22-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T04:38:22-05:00</t>
+    <t>2022-05-01T20:03:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:03:30-05:00</t>
+    <t>2022-05-01T20:29:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T20:29:13-05:00</t>
+    <t>2022-05-04T12:20:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T12:20:47-05:00</t>
+    <t>2022-06-03T13:24:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T13:24:40-05:00</t>
+    <t>2022-06-15T12:17:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T12:17:27-04:00</t>
+    <t>2022-07-10T21:26:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T21:26:18-05:00</t>
+    <t>2022-07-15T12:22:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A Location is the physical place where healthcare services are provided, practitioners are employed, 
+    <t>A Location is the physical place where healthcare services are provided, practitioners are employed, 
                  organizations are based, etc. Locations can range in scope from a room in a building to a geographic region/area.</t>
   </si>
   <si>
@@ -1791,43 +1791,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.9609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.57421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.43359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="65.8671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="66.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirAttest-Location.xlsx
+++ b/output/StructureDefinition-NatlDirAttest-Location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T12:22:10-04:00</t>
+    <t>2022-07-15T15:24:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
